--- a/Testes/UC07_Test_Scenario.xlsx
+++ b/Testes/UC07_Test_Scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blest\Desktop\Sprints\upskill_java1_labprg_grupo2\Testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B556E960-E574-46DF-9ADE-41A2D7680F2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23624642-1618-42A9-B8E1-6C0DE79BA108}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
   <si>
     <t>Project Name</t>
   </si>
@@ -56,87 +56,31 @@
     <t>Test Scenario Description</t>
   </si>
   <si>
-    <t>Check LOGIN functionality</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>TC_Login_002</t>
-  </si>
-  <si>
-    <t>TC_Login_003</t>
-  </si>
-  <si>
-    <t>TC_Login_004</t>
-  </si>
-  <si>
     <t>Test Case Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid User
-Valid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid User
-Invalid Password </t>
-  </si>
-  <si>
     <t>Test Case Steps</t>
   </si>
   <si>
-    <t>1. Enter valid username
-2. Enter invalid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username
-2. Enter valid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username
-2. Enter invalid password
-3. Click login button</t>
-  </si>
-  <si>
     <t>Preconditions</t>
   </si>
   <si>
     <t>Test Data</t>
   </si>
   <si>
-    <t>username: a@b.pt
-password: xxxx</t>
-  </si>
-  <si>
-    <t>username: a@b.
-password: 1234</t>
-  </si>
-  <si>
-    <t>username: a@b.
-password: xxxx</t>
-  </si>
-  <si>
     <t>Post Conditions</t>
   </si>
   <si>
-    <t>Error message "invalid user or password"</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Popup Message: Invalid username or password</t>
-  </si>
-  <si>
     <t>Actual Result</t>
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Executed By</t>
@@ -417,7 +361,40 @@
 4. Período de seriação e adjudicação: 21/01/2021</t>
   </si>
   <si>
-    <t>Mensagem de erro: "O período de seriação e adjudicação não pode ser anterior aos períodos asnteriores"</t>
+    <t>Mensagem de erro: "O período de seriação e adjudicação não pode ser anterior aos períodos anteriores"</t>
+  </si>
+  <si>
+    <t>Popup: O período de seriação e adjudicação não pode ser anterior aos períodos anteriores</t>
+  </si>
+  <si>
+    <t>UC07_TS_007</t>
+  </si>
+  <si>
+    <t>Pub_Tarefa_007</t>
+  </si>
+  <si>
+    <t>Lista de Tarefas válida
+Período de Publicitação válido mas formato errado
+Período de apresentação válido
+Período de seriação e adjudicação inválido</t>
+  </si>
+  <si>
+    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
+2. Seleccionar um Período de publicitação válido em formato errado
+3. Seleccionar um Período de apresentação válido
+4. Período de seriação e adjudicação anterior aos anteriores</t>
+  </si>
+  <si>
+    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
+2. Período de publicitação: 2021/02/01
+3. Período de apresentação: 20/02/2021
+4. Período de seriação e adjudicação: 21/01/2021</t>
+  </si>
+  <si>
+    <t>Mensagem de erro: "O formato da data está errado. Introduza a data pretendida usando o formato dd/mm/aaaa"</t>
+  </si>
+  <si>
+    <t>Popup: O formato da data está errado. Introduza a data pretendida usando o formato dd/mm/aaaa</t>
   </si>
 </sst>
 </file>
@@ -885,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -941,31 +918,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
+      <c r="H8" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -973,301 +944,255 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>13</v>
+      <c r="H10" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
+      <c r="H11" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>20</v>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4"/>
     </row>
@@ -1351,173 +1276,173 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1600,21 +1525,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1622,7 +1547,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1630,7 +1555,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1638,7 +1563,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1646,7 +1571,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1654,7 +1579,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1662,7 +1587,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1670,12 +1595,12 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1683,17 +1608,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
